--- a/biology/Botanique/Begonia_andamensis/Begonia_andamensis.xlsx
+++ b/biology/Botanique/Begonia_andamensis/Begonia_andamensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Begonia andamensis est une espèce de plantes de la famille des Begoniaceae. Ce bégonia tubéreux est originaire d'Asie du Sud-Est. Il est endémique du Golfe du Bengale. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un bégonia vivace, tubéreux.
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire des iles Andaman (Inde), et de Birmanie[2]. Il est endémique du Golfe du Bengale.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire des iles Andaman (Inde), et de Birmanie. Il est endémique du Golfe du Bengale.
 </t>
         </is>
       </c>
@@ -573,11 +589,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Begonia andamensis fait partie de la section Parvibegonia[3] du genre Begonia, famille des Begoniaceae[4]. En classification phylogénétique APG IV (2016)[5], comme classification phylogénétique APG III (2009)[6], celle-ci est classée dans l'ordre des Cucurbitales, alors que dans la classification classique de Cronquist (1981)[7] les Begoniaceae font partie de l'ordre des Violales.
-Elle a été décrite en 1879 par Charles Baron Clarke (1832-1906)[8], à la suite des travaux de Samuel Bonsall Parish (1838-1928). L'épithète spécifique andamensis signifie « d'Andaman », en référence aux iles Andaman.
-Publication originale : The Flora of British India 2: 650. 1879[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Begonia andamensis fait partie de la section Parvibegonia du genre Begonia, famille des Begoniaceae. En classification phylogénétique APG IV (2016), comme classification phylogénétique APG III (2009), celle-ci est classée dans l'ordre des Cucurbitales, alors que dans la classification classique de Cronquist (1981) les Begoniaceae font partie de l'ordre des Violales.
+Elle a été décrite en 1879 par Charles Baron Clarke (1832-1906), à la suite des travaux de Samuel Bonsall Parish (1838-1928). L'épithète spécifique andamensis signifie « d'Andaman », en référence aux iles Andaman.
+Publication originale : The Flora of British India 2: 650. 1879.
 </t>
         </is>
       </c>
